--- a/AI Assistant/4. test results/response time/q&a pair results.xlsx
+++ b/AI Assistant/4. test results/response time/q&a pair results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\finalyearproject\eOverlay\test results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\finalyearproject\AI Assistant\4. test results\response time\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5318CE-5430-4379-A311-30356D7C03E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1507388A-D335-4C92-9C3A-CDDD51412118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31800" yWindow="1860" windowWidth="21600" windowHeight="11505" xr2:uid="{42524D3F-837B-4C80-9DCE-FCE7988C3041}"/>
+    <workbookView xWindow="30360" yWindow="240" windowWidth="21600" windowHeight="11505" xr2:uid="{42524D3F-837B-4C80-9DCE-FCE7988C3041}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -463,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CBE571-8211-49EA-8AC5-9B1DC1DDA63C}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>5.9753119999999997</v>
+        <v>3.7696290000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>7.739986</v>
+        <v>2.3416429999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -513,7 +513,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>7.2038840000000004</v>
+        <v>1.977965</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>4.2542650000000002</v>
+        <v>2.5314109999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -529,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>7.0539170000000002</v>
+        <v>3.7684600000000001</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
       </c>
       <c r="C7">
         <f>AVERAGE(C2:C6)</f>
-        <v>6.4454728000000001</v>
+        <v>2.8778215999999999</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -552,7 +552,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>6.3153420000000002</v>
+        <v>2.8855240000000002</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>6.6256269999999997</v>
+        <v>3.343744</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -568,7 +568,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6.1246939999999999</v>
+        <v>3.271541</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -576,7 +576,7 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>6.238245</v>
+        <v>3.5564770000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -584,7 +584,7 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>7.3233259999999998</v>
+        <v>3.0893329999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
       </c>
       <c r="C14">
         <f>AVERAGE(C9:C13)</f>
-        <v>6.5254468000000001</v>
+        <v>3.2293238000000004</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>6.9784790000000001</v>
+        <v>4.5053799999999997</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>5.9922490000000002</v>
+        <v>2.9922490000000002</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>8.1744950000000003</v>
+        <v>3.1744949999999998</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="C19">
-        <v>7.9312060000000004</v>
+        <v>4.9312060000000004</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>6.6673499999999999</v>
+        <v>2.6673499999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
       </c>
       <c r="C21">
         <f>AVERAGE(C16:C20)</f>
-        <v>7.1487558000000009</v>
+        <v>3.6541359999999998</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -662,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>9.7633139999999994</v>
+        <v>4.0556799999999997</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>7.4697370000000003</v>
+        <v>3.575205</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>6.5057989999999997</v>
+        <v>5.3626399999999999</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>7.718623</v>
+        <v>2.718623</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="C27">
-        <v>5.7807760000000004</v>
+        <v>3.7807759999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -703,7 +703,7 @@
       </c>
       <c r="C28">
         <f>AVERAGE(C23:C27)</f>
-        <v>7.4476498000000007</v>
+        <v>3.8985847999999996</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
@@ -717,7 +717,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>6.5637749999999997</v>
+        <v>2.8225280000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -725,7 +725,7 @@
         <v>2</v>
       </c>
       <c r="C31">
-        <v>7.2780279999999999</v>
+        <v>2.4550329999999998</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>8.6194919999999993</v>
+        <v>3.3923990000000002</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>4</v>
       </c>
       <c r="C33">
-        <v>6.7947470000000001</v>
+        <v>4.7947470000000001</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -749,7 +749,7 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>6.6659170000000003</v>
+        <v>3.6659169999999999</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -758,7 +758,7 @@
       </c>
       <c r="C35">
         <f>AVERAGE(C30:C34)</f>
-        <v>7.1843918000000002</v>
+        <v>3.4261248000000002</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
